--- a/NEW HR/DONE/DORADO, JULIADA.xlsx
+++ b/NEW HR/DONE/DORADO, JULIADA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -233,6 +233,18 @@
   <si>
     <t>4/5,14/2023</t>
   </si>
+  <si>
+    <t>VL(8-0-0)</t>
+  </si>
+  <si>
+    <t>5/3,5,9,12,17,19,23,26/2023</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>4/20,28/2023</t>
+  </si>
 </sst>
 </file>
 
@@ -244,7 +256,7 @@
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +290,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -468,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -611,6 +630,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3283,7 +3305,7 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
       <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
@@ -3308,62 +3330,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>38311</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3389,18 +3411,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5809,10 +5831,10 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A9" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5834,71 +5856,71 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="str">
+      <c r="B2" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
         <v>DORADO, JULIADA</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50" t="str">
+      <c r="B3" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
         <v/>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>38311</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="str">
+      <c r="B4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B4:C4),"---------",'2018 LEAVE CREDITS'!B4:C4)</f>
         <v>CASUAL</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5924,18 +5946,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5982,7 +6004,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>73.986999999999995</v>
+        <v>63.986999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6218,10 +6240,16 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="39"/>
+      <c r="D20" s="39">
+        <v>8</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
       <c r="G20" s="13" t="str">
@@ -6231,13 +6259,19 @@
       <c r="H20" s="39"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
+      <c r="K20" s="50" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
-      <c r="B21" s="20"/>
+      <c r="B21" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="39"/>
+      <c r="D21" s="39">
+        <v>2</v>
+      </c>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
       <c r="G21" s="13" t="str">
@@ -6247,7 +6281,9 @@
       <c r="H21" s="39"/>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
+      <c r="K21" s="20" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
@@ -8057,17 +8093,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -8146,12 +8182,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">

--- a/NEW HR/DONE/DORADO, JULIADA.xlsx
+++ b/NEW HR/DONE/DORADO, JULIADA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
   <si>
     <t>PERIOD</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>4/20,28/2023</t>
+  </si>
+  <si>
+    <t>06/6,9,14,16,20,23,27,30/2023</t>
   </si>
 </sst>
 </file>
@@ -638,6 +641,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -650,20 +662,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1360,7 +1363,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1403,7 +1406,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1467,7 +1470,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1527,7 +1530,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1593,7 +1596,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,7 +1659,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1754,7 +1757,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1813,7 +1816,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1878,7 +1881,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1921,7 +1924,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,7 +1999,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2182,7 +2185,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,7 +2251,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2309,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2375,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2428,7 +2431,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2503,7 +2506,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2546,7 +2549,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2612,7 +2615,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2668,7 +2671,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2766,7 +2769,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2829,7 +2832,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3305,10 +3308,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A70" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3338,14 +3341,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3356,16 +3359,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="58">
         <v>38311</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3378,14 +3381,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3411,18 +3414,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3469,7 +3472,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3479,7 +3482,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>76.75</v>
+        <v>79.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4887,13 +4890,15 @@
       <c r="B79" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39">
         <v>2</v>
@@ -4905,15 +4910,19 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45047</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -4921,7 +4930,9 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45078</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -5786,17 +5797,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5831,10 +5842,10 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A9" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5865,14 +5876,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5886,17 +5897,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="58">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>38311</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5910,17 +5921,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="str">
+      <c r="F4" s="52" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5946,18 +5957,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6004,7 +6015,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>63.986999999999995</v>
+        <v>55.986999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6286,10 +6297,16 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="39"/>
+      <c r="D22" s="39">
+        <v>8</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
       <c r="G22" s="13" t="str">
@@ -6299,7 +6316,9 @@
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>

--- a/NEW HR/DONE/DORADO, JULIADA.xlsx
+++ b/NEW HR/DONE/DORADO, JULIADA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DD188C-768C-4E2C-95B6-6B04A64DE2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -248,11 +249,14 @@
   <si>
     <t>06/6,9,14,16,20,23,27,30/2023</t>
   </si>
+  <si>
+    <t>7/5,7,11,14,18,21,25,28</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -641,15 +645,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -662,11 +657,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1363,7 +1367,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1406,7 +1410,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1470,7 +1474,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1530,7 +1534,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1596,7 +1600,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1659,7 +1663,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1757,7 +1761,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1816,7 +1820,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1881,7 +1885,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1924,7 +1928,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1999,7 +2003,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2185,7 +2189,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2251,7 +2255,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2309,7 +2313,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2375,7 +2379,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2431,7 +2435,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2506,7 +2510,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2549,7 +2553,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2615,7 +2619,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2671,7 +2675,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2769,7 +2773,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2832,7 +2836,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2881,7 +2885,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2898,25 +2902,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2928,25 +2932,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2958,13 +2962,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2973,14 +2977,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3284,7 +3288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3294,7 +3298,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3302,34 +3306,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A73" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
+      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3341,16 +3345,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3359,18 +3363,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="55">
         <v>38311</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3381,16 +3385,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3398,7 +3402,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3411,24 +3415,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3463,7 +3467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3472,7 +3476,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>56.25</v>
+        <v>57.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3482,12 +3486,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>79.25</v>
+        <v>80.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3509,7 +3513,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3529,7 +3533,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3549,7 +3553,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3569,7 +3573,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3589,7 +3593,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3609,7 +3613,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3629,7 +3633,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3649,7 +3653,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3669,7 +3673,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3689,7 +3693,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3709,7 +3713,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3729,7 +3733,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3753,7 +3757,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3771,7 +3775,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3791,7 +3795,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3811,7 +3815,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3831,7 +3835,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3851,7 +3855,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3871,7 +3875,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3891,7 +3895,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3911,7 +3915,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3931,7 +3935,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3951,7 +3955,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3971,7 +3975,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3991,7 +3995,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4015,7 +4019,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4033,7 +4037,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4057,7 +4061,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4077,7 +4081,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4097,7 +4101,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4117,7 +4121,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4137,7 +4141,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4157,7 +4161,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4177,7 +4181,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4197,7 +4201,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4217,7 +4221,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4237,7 +4241,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4257,7 +4261,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4281,7 +4285,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4299,7 +4303,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4319,7 +4323,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4339,7 +4343,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4359,7 +4363,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4379,7 +4383,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4399,7 +4403,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4419,7 +4423,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4439,7 +4443,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4459,7 +4463,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4479,7 +4483,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4499,7 +4503,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4519,7 +4523,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4543,7 +4547,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4561,7 +4565,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4581,7 +4585,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4601,7 +4605,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4621,7 +4625,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4641,7 +4645,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4661,7 +4665,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4681,7 +4685,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4701,7 +4705,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4721,7 +4725,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4741,7 +4745,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4761,7 +4765,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4781,7 +4785,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4805,7 +4809,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>47</v>
       </c>
@@ -4823,7 +4827,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -4843,7 +4847,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44958</v>
       </c>
@@ -4863,7 +4867,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
@@ -4883,7 +4887,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>45017</v>
       </c>
@@ -4909,7 +4913,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>45047</v>
       </c>
@@ -4929,25 +4933,27 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>45078</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4963,7 +4969,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4979,7 +4985,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4995,7 +5001,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -5011,7 +5017,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -5027,7 +5033,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -5043,7 +5049,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5059,7 +5065,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5075,7 +5081,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5091,7 +5097,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5107,7 +5113,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5123,7 +5129,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5139,7 +5145,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5155,7 +5161,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5171,7 +5177,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5187,7 +5193,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5203,7 +5209,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5219,7 +5225,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5235,7 +5241,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5251,7 +5257,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5267,7 +5273,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5283,7 +5289,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5299,7 +5305,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5315,7 +5321,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5331,7 +5337,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5347,7 +5353,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5363,7 +5369,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5379,7 +5385,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5395,7 +5401,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5411,7 +5417,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5427,7 +5433,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5443,7 +5449,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5459,7 +5465,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5475,7 +5481,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5491,7 +5497,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5507,7 +5513,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5523,7 +5529,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5539,7 +5545,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5555,7 +5561,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5571,7 +5577,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5587,7 +5593,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5603,7 +5609,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5619,7 +5625,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5635,7 +5641,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5651,7 +5657,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5667,7 +5673,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5683,7 +5689,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5699,7 +5705,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5715,7 +5721,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5731,7 +5737,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5747,7 +5753,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5763,7 +5769,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5779,7 +5785,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -5797,23 +5803,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5836,34 +5842,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A9" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A21" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5876,16 +5882,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5897,19 +5903,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="55">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>38311</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5921,19 +5927,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="str">
+      <c r="F4" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5941,7 +5947,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5954,24 +5960,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6006,7 +6012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6015,7 +6021,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>55.986999999999995</v>
+        <v>47.986999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6030,7 +6036,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6052,7 +6058,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6076,7 +6082,7 @@
         <v>43103</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -6100,7 +6106,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
         <v>43</v>
       </c>
@@ -6118,7 +6124,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43466</v>
       </c>
@@ -6140,7 +6146,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43617</v>
       </c>
@@ -6164,7 +6170,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
       <c r="B16" s="15" t="s">
         <v>54</v>
@@ -6186,7 +6192,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43647</v>
       </c>
@@ -6210,7 +6216,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>47</v>
       </c>
@@ -6228,7 +6234,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>44958</v>
       </c>
@@ -6250,7 +6256,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>45047</v>
       </c>
@@ -6274,7 +6280,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>67</v>
@@ -6296,7 +6302,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>45078</v>
       </c>
@@ -6320,11 +6326,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="20"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="40">
+        <v>45104</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="39"/>
+      <c r="D23" s="39">
+        <v>8</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
@@ -6334,9 +6346,11 @@
       <c r="H23" s="39"/>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="20"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -6352,7 +6366,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -6368,7 +6382,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -6384,7 +6398,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -6400,7 +6414,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -6416,7 +6430,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6432,7 +6446,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6448,7 +6462,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6464,7 +6478,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6480,7 +6494,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6496,7 +6510,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6512,7 +6526,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6528,7 +6542,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6544,7 +6558,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6560,7 +6574,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6576,7 +6590,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6592,7 +6606,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6608,7 +6622,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6624,7 +6638,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6640,7 +6654,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6656,7 +6670,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6672,7 +6686,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6688,7 +6702,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6704,7 +6718,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6720,7 +6734,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6736,7 +6750,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6752,7 +6766,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6768,7 +6782,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6784,7 +6798,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6800,7 +6814,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6816,7 +6830,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6832,7 +6846,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6848,7 +6862,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6864,7 +6878,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6880,7 +6894,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6896,7 +6910,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6912,7 +6926,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6928,7 +6942,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6944,7 +6958,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6960,7 +6974,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6976,7 +6990,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6992,7 +7006,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7008,7 +7022,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7024,7 +7038,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7040,7 +7054,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7056,7 +7070,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7072,7 +7086,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7088,7 +7102,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7104,7 +7118,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7120,7 +7134,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7136,7 +7150,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7152,7 +7166,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7168,7 +7182,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7184,7 +7198,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7200,7 +7214,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7216,7 +7230,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7232,7 +7246,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7248,7 +7262,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7264,7 +7278,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7280,7 +7294,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7296,7 +7310,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7312,7 +7326,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7328,7 +7342,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7344,7 +7358,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7360,7 +7374,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7376,7 +7390,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7392,7 +7406,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7408,7 +7422,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7424,7 +7438,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7440,7 +7454,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7456,7 +7470,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7472,7 +7486,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7488,7 +7502,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7504,7 +7518,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7520,7 +7534,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7536,7 +7550,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7552,7 +7566,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7568,7 +7582,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7584,7 +7598,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7600,7 +7614,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7616,7 +7630,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7632,7 +7646,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7648,7 +7662,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7664,7 +7678,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7680,7 +7694,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7696,7 +7710,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7712,7 +7726,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7728,7 +7742,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7744,7 +7758,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7760,7 +7774,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7776,7 +7790,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7792,7 +7806,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7808,7 +7822,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7824,7 +7838,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7840,7 +7854,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7856,7 +7870,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7872,7 +7886,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7888,7 +7902,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7904,7 +7918,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7920,7 +7934,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7936,7 +7950,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -7952,7 +7966,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -7968,7 +7982,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -7984,7 +7998,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8000,7 +8014,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8016,7 +8030,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8032,7 +8046,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -8063,10 +8077,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8089,7 +8103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8097,21 +8111,21 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -8124,7 +8138,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8153,7 +8167,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>91.986999999999995</v>
       </c>
@@ -8177,17 +8191,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8208,7 +8222,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8235,7 +8249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8261,7 +8275,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8287,7 +8301,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8313,7 +8327,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8339,7 +8353,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8365,7 +8379,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8391,7 +8405,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8417,7 +8431,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8437,7 +8451,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8457,7 +8471,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8477,7 +8491,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8498,7 +8512,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8519,7 +8533,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8540,7 +8554,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8561,7 +8575,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8582,7 +8596,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8603,7 +8617,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8624,7 +8638,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8645,7 +8659,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8666,7 +8680,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8687,7 +8701,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8708,7 +8722,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8729,7 +8743,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8750,7 +8764,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8771,7 +8785,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8792,7 +8806,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8813,7 +8827,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8834,7 +8848,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8855,7 +8869,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8876,7 +8890,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8897,7 +8911,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8906,7 +8920,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8915,7 +8929,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8924,7 +8938,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8933,7 +8947,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8942,7 +8956,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8951,7 +8965,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8960,7 +8974,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8969,7 +8983,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8978,7 +8992,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8987,7 +9001,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8996,7 +9010,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9005,7 +9019,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9014,7 +9028,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9023,7 +9037,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9032,7 +9046,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9041,7 +9055,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9050,7 +9064,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9059,7 +9073,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9068,7 +9082,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9077,7 +9091,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9086,7 +9100,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9095,7 +9109,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9104,7 +9118,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9113,7 +9127,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9122,7 +9136,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9131,7 +9145,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9140,7 +9154,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9149,7 +9163,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9158,7 +9172,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/DORADO, JULIADA.xlsx
+++ b/NEW HR/DONE/DORADO, JULIADA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DD188C-768C-4E2C-95B6-6B04A64DE2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -252,11 +251,17 @@
   <si>
     <t>7/5,7,11,14,18,21,25,28</t>
   </si>
+  <si>
+    <t>VL(9-0-0)</t>
+  </si>
+  <si>
+    <t>8/1,4,8,11,15,18,22,25,29/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -645,6 +650,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -657,20 +671,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1367,7 +1372,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1410,7 +1415,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1474,7 +1479,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1534,7 +1539,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1600,7 +1605,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1663,7 +1668,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1761,7 +1766,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1820,7 +1825,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1885,7 +1890,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1928,7 +1933,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2003,7 +2008,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2194,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2255,7 +2260,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2313,7 +2318,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2379,7 +2384,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,7 +2440,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2510,7 +2515,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2553,7 +2558,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,7 +2624,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2675,7 +2680,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2773,7 +2778,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2836,7 +2841,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2885,7 +2890,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2902,25 +2907,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2932,25 +2937,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2962,13 +2967,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2977,14 +2982,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3288,7 +3293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3298,7 +3303,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3306,34 +3311,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A76" activePane="bottomLeft"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
+      <selection pane="bottomLeft" activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3345,16 +3350,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3363,18 +3368,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="58">
         <v>38311</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3385,16 +3390,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3402,7 +3407,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3415,24 +3420,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3467,7 +3472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3476,7 +3481,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3486,12 +3491,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>80.5</v>
+        <v>81.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3513,7 +3518,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3533,7 +3538,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3553,7 +3558,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3573,7 +3578,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3593,7 +3598,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3613,7 +3618,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3633,7 +3638,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3653,7 +3658,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3673,7 +3678,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3693,7 +3698,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3713,7 +3718,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3733,7 +3738,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3757,7 +3762,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3775,7 +3780,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3795,7 +3800,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3815,7 +3820,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3835,7 +3840,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3855,7 +3860,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3875,7 +3880,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3895,7 +3900,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3915,7 +3920,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3935,7 +3940,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3955,7 +3960,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3975,7 +3980,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3995,7 +4000,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4019,7 +4024,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4037,7 +4042,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4061,7 +4066,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4081,7 +4086,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4101,7 +4106,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4121,7 +4126,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4141,7 +4146,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4161,7 +4166,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4181,7 +4186,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4201,7 +4206,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4221,7 +4226,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4241,7 +4246,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4261,7 +4266,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4285,7 +4290,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4303,7 +4308,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4323,7 +4328,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4343,7 +4348,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4363,7 +4368,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4383,7 +4388,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4403,7 +4408,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4423,7 +4428,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4443,7 +4448,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4463,7 +4468,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4483,7 +4488,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4503,7 +4508,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4523,7 +4528,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4547,7 +4552,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4565,7 +4570,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4585,7 +4590,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4605,7 +4610,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4625,7 +4630,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4645,7 +4650,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4665,7 +4670,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4685,7 +4690,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4705,7 +4710,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4725,7 +4730,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4745,7 +4750,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4765,7 +4770,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4785,7 +4790,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4809,7 +4814,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>47</v>
       </c>
@@ -4827,7 +4832,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -4847,7 +4852,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44958</v>
       </c>
@@ -4867,7 +4872,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
@@ -4887,7 +4892,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45017</v>
       </c>
@@ -4913,7 +4918,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45047</v>
       </c>
@@ -4933,7 +4938,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45078</v>
       </c>
@@ -4953,23 +4958,27 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="40">
+        <v>45108</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4985,7 +4994,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -5001,7 +5010,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -5017,7 +5026,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -5033,7 +5042,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -5049,7 +5058,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5065,7 +5074,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5081,7 +5090,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5097,7 +5106,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5113,7 +5122,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5129,7 +5138,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5145,7 +5154,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5161,7 +5170,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5177,7 +5186,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5193,7 +5202,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5209,7 +5218,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5225,7 +5234,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5241,7 +5250,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5257,7 +5266,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5273,7 +5282,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5289,7 +5298,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5305,7 +5314,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5321,7 +5330,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5337,7 +5346,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5353,7 +5362,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5369,7 +5378,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5385,7 +5394,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5401,7 +5410,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5417,7 +5426,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5433,7 +5442,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5449,7 +5458,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5465,7 +5474,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5481,7 +5490,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5497,7 +5506,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5513,7 +5522,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5529,7 +5538,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5545,7 +5554,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5561,7 +5570,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5577,7 +5586,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5593,7 +5602,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5609,7 +5618,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5625,7 +5634,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5641,7 +5650,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5657,7 +5666,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5673,7 +5682,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5689,7 +5698,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5705,7 +5714,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5721,7 +5730,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5737,7 +5746,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5753,7 +5762,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5769,7 +5778,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5785,7 +5794,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -5803,23 +5812,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5842,34 +5851,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A21" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A21" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5882,16 +5891,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5903,19 +5912,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="58">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>38311</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5927,19 +5936,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="str">
+      <c r="F4" s="52" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5947,7 +5956,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5960,24 +5969,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6012,7 +6021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6021,7 +6030,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>47.986999999999995</v>
+        <v>38.986999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6036,7 +6045,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6058,7 +6067,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6082,7 +6091,7 @@
         <v>43103</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -6106,7 +6115,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
         <v>43</v>
       </c>
@@ -6124,7 +6133,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43466</v>
       </c>
@@ -6146,7 +6155,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43617</v>
       </c>
@@ -6170,7 +6179,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="15" t="s">
         <v>54</v>
@@ -6192,7 +6201,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43647</v>
       </c>
@@ -6216,7 +6225,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>47</v>
       </c>
@@ -6234,7 +6243,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>44958</v>
       </c>
@@ -6256,7 +6265,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>45047</v>
       </c>
@@ -6280,7 +6289,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>67</v>
@@ -6302,7 +6311,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>45078</v>
       </c>
@@ -6326,7 +6335,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>45104</v>
       </c>
@@ -6350,11 +6359,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="20"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="40">
+        <v>45145</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="39"/>
+      <c r="D24" s="39">
+        <v>9</v>
+      </c>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
       <c r="G24" s="13" t="str">
@@ -6364,9 +6379,11 @@
       <c r="H24" s="39"/>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K24" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -6382,7 +6399,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -6398,7 +6415,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -6414,7 +6431,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -6430,7 +6447,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6446,7 +6463,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6462,7 +6479,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6478,7 +6495,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6494,7 +6511,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6510,7 +6527,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6526,7 +6543,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6542,7 +6559,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6558,7 +6575,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6574,7 +6591,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6590,7 +6607,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6606,7 +6623,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6622,7 +6639,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6638,7 +6655,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6654,7 +6671,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6670,7 +6687,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6686,7 +6703,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6702,7 +6719,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6718,7 +6735,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6734,7 +6751,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6750,7 +6767,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6766,7 +6783,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6782,7 +6799,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6798,7 +6815,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6814,7 +6831,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6830,7 +6847,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6846,7 +6863,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6862,7 +6879,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6878,7 +6895,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6894,7 +6911,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6910,7 +6927,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6926,7 +6943,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6942,7 +6959,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6958,7 +6975,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6974,7 +6991,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6990,7 +7007,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7006,7 +7023,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7022,7 +7039,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7038,7 +7055,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7054,7 +7071,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7070,7 +7087,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7086,7 +7103,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7102,7 +7119,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7118,7 +7135,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7134,7 +7151,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7150,7 +7167,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7166,7 +7183,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7182,7 +7199,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7198,7 +7215,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7214,7 +7231,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7230,7 +7247,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7246,7 +7263,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7262,7 +7279,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7278,7 +7295,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7294,7 +7311,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7310,7 +7327,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7326,7 +7343,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7342,7 +7359,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7358,7 +7375,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7374,7 +7391,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7390,7 +7407,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7406,7 +7423,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7422,7 +7439,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7438,7 +7455,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7454,7 +7471,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7470,7 +7487,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7486,7 +7503,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7502,7 +7519,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7518,7 +7535,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7534,7 +7551,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7550,7 +7567,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7566,7 +7583,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7582,7 +7599,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7598,7 +7615,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7614,7 +7631,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7630,7 +7647,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7646,7 +7663,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7662,7 +7679,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7678,7 +7695,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7694,7 +7711,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7710,7 +7727,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7726,7 +7743,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7742,7 +7759,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7758,7 +7775,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7774,7 +7791,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7790,7 +7807,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7806,7 +7823,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7822,7 +7839,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7838,7 +7855,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7854,7 +7871,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7870,7 +7887,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7886,7 +7903,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7902,7 +7919,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7918,7 +7935,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7934,7 +7951,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7950,7 +7967,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -7966,7 +7983,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -7982,7 +7999,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -7998,7 +8015,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8014,7 +8031,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8030,7 +8047,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8046,7 +8063,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -8077,10 +8094,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8103,7 +8120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8111,21 +8128,21 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -8138,7 +8155,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8167,7 +8184,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>91.986999999999995</v>
       </c>
@@ -8191,17 +8208,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8222,7 +8239,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8249,7 +8266,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8275,7 +8292,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8301,7 +8318,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8327,7 +8344,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8353,7 +8370,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8379,7 +8396,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8405,7 +8422,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8431,7 +8448,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8451,7 +8468,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8471,7 +8488,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8491,7 +8508,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8512,7 +8529,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8533,7 +8550,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8554,7 +8571,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8575,7 +8592,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8596,7 +8613,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8617,7 +8634,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8638,7 +8655,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8659,7 +8676,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8680,7 +8697,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8701,7 +8718,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8722,7 +8739,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8743,7 +8760,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8764,7 +8781,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8785,7 +8802,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8806,7 +8823,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8827,7 +8844,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8848,7 +8865,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8869,7 +8886,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8890,7 +8907,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8911,7 +8928,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8920,7 +8937,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8929,7 +8946,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8938,7 +8955,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8947,7 +8964,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8956,7 +8973,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8965,7 +8982,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8974,7 +8991,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8983,7 +9000,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8992,7 +9009,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9001,7 +9018,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9010,7 +9027,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9019,7 +9036,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9028,7 +9045,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9037,7 +9054,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9046,7 +9063,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9055,7 +9072,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9064,7 +9081,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9073,7 +9090,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9082,7 +9099,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9091,7 +9108,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9100,7 +9117,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9109,7 +9126,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9118,7 +9135,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9127,7 +9144,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9136,7 +9153,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9145,7 +9162,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9154,7 +9171,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9163,7 +9180,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9172,7 +9189,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
